--- a/SEM 4/Progress.xlsx
+++ b/SEM 4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE548EB-CF94-4866-80E8-E97ED2913A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC6134-41E9-45D9-A655-80024444321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="39">
   <si>
     <t>CNND</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>ASS3</t>
+  </si>
+  <si>
+    <t>ASS4</t>
+  </si>
+  <si>
+    <t>ASS5</t>
+  </si>
+  <si>
+    <t>TUT1</t>
+  </si>
+  <si>
+    <t>TUT2</t>
+  </si>
+  <si>
+    <t>TUT3</t>
+  </si>
+  <si>
+    <t>TUT4</t>
+  </si>
+  <si>
+    <t>TUT5</t>
+  </si>
+  <si>
+    <t>TUT6</t>
   </si>
 </sst>
 </file>
@@ -501,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,11 +577,11 @@
       <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -573,11 +600,11 @@
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -596,11 +623,11 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -619,8 +646,11 @@
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -636,8 +666,11 @@
       <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -653,16 +686,28 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>29</v>
@@ -681,6 +726,9 @@
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
@@ -692,8 +740,14 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>29</v>
@@ -706,8 +760,14 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
@@ -726,6 +786,9 @@
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
@@ -740,6 +803,12 @@
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="5" t="s">
         <v>29</v>
       </c>
@@ -754,6 +823,12 @@
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="5" t="s">
         <v>29</v>
       </c>
@@ -768,6 +843,12 @@
       <c r="D17" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" s="5" t="s">
         <v>29</v>
       </c>
@@ -782,6 +863,12 @@
       <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H18" s="5" t="s">
         <v>29</v>
       </c>
@@ -796,6 +883,12 @@
       <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" s="5" t="s">
         <v>29</v>
       </c>
@@ -810,6 +903,12 @@
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H20" s="5" t="s">
         <v>29</v>
       </c>
@@ -824,6 +923,12 @@
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H21" s="5" t="s">
         <v>29</v>
       </c>
@@ -838,6 +943,12 @@
       <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="5" t="s">
         <v>29</v>
       </c>
@@ -852,6 +963,12 @@
       <c r="D23" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="5" t="s">
         <v>29</v>
       </c>
@@ -869,10 +986,226 @@
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/SEM 4/Progress.xlsx
+++ b/SEM 4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC6134-41E9-45D9-A655-80024444321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB0203-69A4-4D06-9D3D-0C5D9E975ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="32">
   <si>
     <t>CNND</t>
   </si>
@@ -67,27 +67,6 @@
   </si>
   <si>
     <t>EXP13</t>
-  </si>
-  <si>
-    <t>EXP14</t>
-  </si>
-  <si>
-    <t>EXP15</t>
-  </si>
-  <si>
-    <t>EXP16</t>
-  </si>
-  <si>
-    <t>EXP17</t>
-  </si>
-  <si>
-    <t>EXP18</t>
-  </si>
-  <si>
-    <t>EXP19</t>
-  </si>
-  <si>
-    <t>EXP20</t>
   </si>
   <si>
     <t>ASS1</t>
@@ -528,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,19 +525,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -566,22 +545,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -589,22 +568,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -612,22 +591,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -635,22 +614,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -658,19 +637,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -678,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -698,19 +680,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -718,19 +700,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -738,19 +720,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -758,19 +740,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -778,19 +760,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -798,19 +780,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -818,394 +800,263 @@
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/SEM 4/Progress.xlsx
+++ b/SEM 4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB0203-69A4-4D06-9D3D-0C5D9E975ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02563B72-E470-4684-94CC-CC937C679D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="36">
   <si>
     <t>CNND</t>
   </si>
@@ -121,13 +121,25 @@
   </si>
   <si>
     <t>TUT6</t>
+  </si>
+  <si>
+    <t>EXP14</t>
+  </si>
+  <si>
+    <t>EXP15</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>ASS6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +191,21 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Microsoft JhengHei UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +222,11 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,12 +237,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -225,9 +256,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -507,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +700,9 @@
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
@@ -685,6 +723,9 @@
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -705,6 +746,9 @@
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
@@ -725,6 +769,9 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
@@ -745,6 +792,9 @@
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
@@ -765,6 +815,9 @@
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
@@ -785,6 +838,9 @@
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
@@ -808,6 +864,9 @@
       <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
@@ -816,88 +875,103 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>22</v>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>22</v>
+      <c r="H21" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>22</v>
@@ -919,11 +993,31 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>22</v>
@@ -937,16 +1031,16 @@
       <c r="F24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>27</v>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>22</v>
@@ -960,39 +1054,19 @@
       <c r="F25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>21</v>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>22</v>
@@ -1009,13 +1083,13 @@
       <c r="G27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>22</v>
+      <c r="H27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>22</v>
@@ -1032,30 +1106,99 @@
       <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>22</v>
+      <c r="H28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="C32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/SEM 4/Progress.xlsx
+++ b/SEM 4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02563B72-E470-4684-94CC-CC937C679D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA302E-E24F-4254-81DC-1122818FCBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="35">
   <si>
     <t>CNND</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>EXP15</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
   </si>
   <si>
     <t>ASS6</t>
@@ -139,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,21 +188,8 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Microsoft JhengHei UI Light"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,11 +206,6 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,13 +216,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -256,13 +234,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -545,7 +519,7 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,8 +930,8 @@
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>34</v>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>21</v>
@@ -988,8 +962,8 @@
       <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>22</v>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1040,7 +1014,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>22</v>

--- a/SEM 4/Progress.xlsx
+++ b/SEM 4/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA302E-E24F-4254-81DC-1122818FCBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6738FF-CD17-4F9F-A3F4-4A62A65F7318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
